--- a/apifile/DeviceMapController.xlsx
+++ b/apifile/DeviceMapController.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>{'deviceCriteria': {'deviceTypeIds': ['camera'], 'deviceStatus': ['ONLINE']}, 'criteriaName': 'testkmxL068G'}</t>
+          <t>{'deviceCriteria': {'deviceTypeIds': ['camera'], 'deviceStatus': ['ONLINE']}, 'criteriaName': 'testVILMxdvs'}</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">

--- a/apifile/DeviceMapController.xlsx
+++ b/apifile/DeviceMapController.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>{'deviceCriteria': {'deviceTypeIds': ['camera'], 'deviceStatus': ['ONLINE']}, 'criteriaName': 'testVILMxdvs'}</t>
+          <t>{'deviceCriteria': {'deviceTypeIds': ['camera'], 'deviceStatus': ['ONLINE']}, 'criteriaName': 'testLQO8WYJB'}</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">

--- a/apifile/DeviceMapController.xlsx
+++ b/apifile/DeviceMapController.xlsx
@@ -461,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -474,8 +474,8 @@
     <col width="72.875" customWidth="1" style="2" min="6" max="6"/>
     <col width="38.125" customWidth="1" style="2" min="7" max="7"/>
     <col width="61.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="9" customWidth="1" style="2" min="9" max="11"/>
-    <col width="9" customWidth="1" style="2" min="12" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="9" max="13"/>
+    <col width="9" customWidth="1" style="2" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" s="8" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/all/device/status</t>
+          <t>http://island.iot-cas.com:8081/island/device/all/device/status</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/all/device/type</t>
+          <t>http://island.iot-cas.com:8081/island/device/all/device/type</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -577,7 +577,7 @@
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/query/device</t>
+          <t>http://island.iot-cas.com:8081/island/device/query/device</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="9" t="inlineStr">
         <is>
-          <t>id=720586611470512128</t>
+          <t>id=730150876257792000</t>
         </is>
       </c>
       <c r="G4" s="6" t="inlineStr">
@@ -608,7 +608,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/query/sensor</t>
+          <t>http://island.iot-cas.com:8081/island/device/query/sensor</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="F5" s="9" t="inlineStr">
         <is>
-          <t>id=703913572703051776</t>
+          <t>id=730150876257792000</t>
         </is>
       </c>
       <c r="G5" s="6" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/query/weather</t>
+          <t>http://island.iot-cas.com:8081/island/device/query/weather</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="F6" s="9" t="inlineStr">
         <is>
-          <t>id=703913572703051776</t>
+          <t>id=730150876257792000</t>
         </is>
       </c>
       <c r="G6" s="6" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/query/vehicle</t>
+          <t>http://island.iot-cas.com:8081/island/device/query/vehicle</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="F7" s="9" t="inlineStr">
         <is>
-          <t>id=727649904073510912</t>
+          <t>id=730786290194034688</t>
         </is>
       </c>
       <c r="G7" s="6" t="inlineStr">
@@ -701,7 +701,7 @@
     <row r="8" ht="195" customHeight="1">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/device/criteria</t>
+          <t>http://island.iot-cas.com:8081/island/device/device/criteria</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>{'deviceCriteria': {'deviceTypeIds': ['camera'], 'deviceStatus': ['ONLINE']}, 'criteriaName': 'testLQO8WYJB'}</t>
+          <t>{'deviceCriteria': {'deviceTypeIds': ['camera'], 'deviceStatus': ['ONLINE']}, 'criteriaName': 'test0oj2W3yg'}</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/device/criteria</t>
+          <t>http://island.iot-cas.com:8081/island/device/device/criteria</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="10">
       <c r="A10" s="10" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/query/device/criteria</t>
+          <t>http://island.iot-cas.com:8081/island/device/query/device/criteria</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="11">
       <c r="A11" s="10" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/device/criteria</t>
+          <t>http://island.iot-cas.com:8081/island/device/device/criteria</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -818,16 +818,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A2" display="http://island.dev.iot-cas.com:8081/island/device/all/device/status" r:id="rId1"/>
+    <hyperlink ref="A3" display="http://island.dev.iot-cas.com:8081/island/device/all/device/type" r:id="rId2"/>
+    <hyperlink ref="A4" display="http://island.dev.iot-cas.com:8081/island/device/query/device" r:id="rId3"/>
+    <hyperlink ref="A5" display="http://island.dev.iot-cas.com:8081/island/device/query/sensor" r:id="rId4"/>
+    <hyperlink ref="A6" display="http://island.dev.iot-cas.com:8081/island/device/query/weather" r:id="rId5"/>
+    <hyperlink ref="A7" display="http://island.dev.iot-cas.com:8081/island/device/query/vehicle" r:id="rId6"/>
+    <hyperlink ref="A8" display="http://island.dev.iot-cas.com:8081/island/device/device/criteria" r:id="rId7"/>
+    <hyperlink ref="A9" display="http://island.dev.iot-cas.com:8081/island/device/device/criteria" r:id="rId8"/>
+    <hyperlink ref="A10" display="http://island.dev.iot-cas.com:8081/island/device/query/device/criteria" r:id="rId9"/>
+    <hyperlink ref="A11" display="http://island.dev.iot-cas.com:8081/island/device/device/criteria" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
